--- a/案件表格.xlsx
+++ b/案件表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guhhhhaa/Documents/GitHub/antbot-binance-weiquan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77FDA1EC-CE06-984F-8A5D-F94024DAEA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF5525A-F011-3747-9C9D-D698C8ADB77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{230FA8C0-76C9-EA46-933E-34BED4469C71}"/>
   </bookViews>
@@ -261,6 +261,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>推荐警方要做什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关，责任方，几乎不可能举证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密币和法币的
+连接桥梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未授权交易划转
+金融犯罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动入侵
+网络盗窃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>一，调查与立案：
 询问受害人，让受害人提交材料，做笔录，最后立案。
 二，侦查与破案：
@@ -269,7 +292,7 @@
 2，通过链接，联系交易所，注册，并向交易所提交执法请求。
 需要VPN，才能访问：（需要在这里阅读说明）
 https://www.binance.com/zh-CN/support/law-enforcement 
-不要VPN，直接访问：（需要在这里注册）
+不要VPN，直接访问：（需要在这里注册）需使用谷歌浏览器访问，且需开启"桌面版网站"选项。
 https://app.kodex.us/binance-cn/signup
 3，警方将注册邮箱告知受害人，受害人凭借警方邮箱，联系交易所，获取案件调查进展。
 4，警方通过受害人的身份证号码（受害人已用身份证号码通过交易所KYC认证），
@@ -278,29 +301,6 @@
 三，执法与结案：
 最终追回并返还，加密货币资产，到受害人的币安交易所账户，
 追究责任，结案。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐警方要做什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关，责任方，几乎不可能举证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加密币和法币的
-连接桥梁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未授权交易划转
-金融犯罪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动入侵
-网络盗窃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,8 +775,8 @@
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="35" zoomScaleNormal="24" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="61" zoomScaleNormal="24" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41.6640625" defaultRowHeight="72" customHeight="1"/>
@@ -848,7 +848,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>45</v>
@@ -925,13 +925,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>12</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="15" spans="1:11" ht="80" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="16" spans="1:11" ht="80" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>

--- a/案件表格.xlsx
+++ b/案件表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guhhhhaa/Documents/GitHub/antbot-binance-weiquan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF5525A-F011-3747-9C9D-D698C8ADB77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259C3F43-067D-3349-9618-8E68E4870AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{230FA8C0-76C9-EA46-933E-34BED4469C71}"/>
   </bookViews>
@@ -292,7 +292,7 @@
 2，通过链接，联系交易所，注册，并向交易所提交执法请求。
 需要VPN，才能访问：（需要在这里阅读说明）
 https://www.binance.com/zh-CN/support/law-enforcement 
-不要VPN，直接访问：（需要在这里注册）需使用谷歌浏览器访问，且需开启"桌面版网站"选项。
+不要VPN，直接访问：（需要在这里注册）需使用谷歌浏览器访问，且手机访问需开启"桌面版网站"选项，电脑访问则无需。
 https://app.kodex.us/binance-cn/signup
 3，警方将注册邮箱告知受害人，受害人凭借警方邮箱，联系交易所，获取案件调查进展。
 4，警方通过受害人的身份证号码（受害人已用身份证号码通过交易所KYC认证），

--- a/案件表格.xlsx
+++ b/案件表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guhhhhaa/Documents/GitHub/antbot-binance-weiquan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259C3F43-067D-3349-9618-8E68E4870AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B3620A-0411-574B-9B47-FAF586AEA63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{230FA8C0-76C9-EA46-933E-34BED4469C71}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$14</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>银行，支付宝，C2C商家</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,10 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推荐警方要做什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>相关，责任方，几乎不可能举证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,26 +277,6 @@
   <si>
     <t>主动入侵
 网络盗窃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一，调查与立案：
-询问受害人，让受害人提交材料，做笔录，最后立案。
-二，侦查与破案：
-1，准备任意邮箱，警官证，向上级请示。
-（请示能否允许向交易所提交警官证照片，和手持警官证照片，用于币安交易所执法请求认证。）
-2，通过链接，联系交易所，注册，并向交易所提交执法请求。
-需要VPN，才能访问：（需要在这里阅读说明）
-https://www.binance.com/zh-CN/support/law-enforcement 
-不要VPN，直接访问：（需要在这里注册）需使用谷歌浏览器访问，且手机访问需开启"桌面版网站"选项，电脑访问则无需。
-https://app.kodex.us/binance-cn/signup
-3，警方将注册邮箱告知受害人，受害人凭借警方邮箱，联系交易所，获取案件调查进展。
-4，警方通过受害人的身份证号码（受害人已用身份证号码通过交易所KYC认证），
-锁定受害人账户，与交易所合作，侦查，破案。
-5，警方锁定证据，追踪责任，明确民事与刑事的责任归属。
-三，执法与结案：
-最终追回并返还，加密货币资产，到受害人的币安交易所账户，
-追究责任，结案。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,7 +284,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -325,30 +301,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="24"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -357,15 +309,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24"/>
+      <sz val="48"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="26"/>
+      <sz val="72"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
@@ -410,51 +362,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,371 +716,287 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="61" zoomScaleNormal="24" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:F24"/>
+    <sheetView tabSelected="1" zoomScale="31" zoomScaleNormal="24" workbookViewId="0">
+      <selection sqref="A1:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41.6640625" defaultRowHeight="72" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="57.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="80" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="117" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="80" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" ht="117" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="80" customHeight="1">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:11" ht="117" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="80" customHeight="1">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:11" ht="117" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="117" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="117" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="117" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="117" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="80" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="117" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="117" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="128" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="128" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4">
+        <v>13614926893</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="128" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="80" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="128" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="80" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="80" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="80" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="80" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="80" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="153" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="9">
-        <v>13614926893</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="153" customHeight="1">
-      <c r="A13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="153" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="80" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="80" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="80" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" ht="80" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="80" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" ht="72" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" ht="72" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" ht="72" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" ht="72" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" ht="72" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-    </row>
+    <row r="15" spans="1:11" ht="80" customHeight="1"/>
+    <row r="16" spans="1:11" ht="80" customHeight="1"/>
+    <row r="17" ht="80" customHeight="1"/>
+    <row r="18" ht="80" customHeight="1"/>
+    <row r="19" ht="80" customHeight="1"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A16:F24"/>
+  <mergeCells count="6">
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A15:F15"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="34" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="30" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>